--- a/src/test/resources/Documents/4182/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4182/Base/JobPlanning.xlsx
@@ -65,33 +65,33 @@
     <t>Bound</t>
   </si>
   <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Duplo-Collator</t>
+  </si>
+  <si>
+    <t>1,020</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>Perfect Binding</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Bourg Perfect Binder</t>
   </si>
   <si>
     <t>1,010</t>
   </si>
   <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
     <t>ISM Chicago</t>
   </si>
   <si>
-    <t>Fold</t>
-  </si>
-  <si>
-    <t>Duplo-Collator</t>
-  </si>
-  <si>
-    <t>1,020</t>
-  </si>
-  <si>
     <t>Wire-o</t>
   </si>
   <si>
@@ -104,40 +104,40 @@
     <t>Cover   4p</t>
   </si>
   <si>
+    <t>Sheet-fed Press F 5x0</t>
+  </si>
+  <si>
+    <t>S1 HEI 640C</t>
+  </si>
+  <si>
+    <t>1,117</t>
+  </si>
+  <si>
+    <t>Sheet-fed Press B 0x4</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
     <t>Cut</t>
   </si>
   <si>
     <t>Cutter 45"</t>
   </si>
   <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>Lamination</t>
+  </si>
+  <si>
+    <t>Laminator</t>
+  </si>
+  <si>
+    <t>1,082</t>
+  </si>
+  <si>
     <t>510</t>
-  </si>
-  <si>
-    <t>Sheet-fed Press F 4x0</t>
-  </si>
-  <si>
-    <t>S1 HEI 640C</t>
-  </si>
-  <si>
-    <t>1,117</t>
-  </si>
-  <si>
-    <t>Sheet-fed Press B 0x4</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>Lamination</t>
-  </si>
-  <si>
-    <t>Laminator</t>
-  </si>
-  <si>
-    <t>1,082</t>
   </si>
   <si>
     <t>Cover  - Color Proof</t>
@@ -178,23 +178,23 @@
     <t>Plate - Cover   4p</t>
   </si>
   <si>
+    <t>Plate burn</t>
+  </si>
+  <si>
+    <t>Plate Making</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>OKTP</t>
   </si>
   <si>
     <t>Ok to Plate</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Ok to Plate
 Integration Validation</t>
-  </si>
-  <si>
-    <t>Plate burn</t>
-  </si>
-  <si>
-    <t>Plate Making</t>
   </si>
   <si>
     <t>Plate - Text  2p</t>
@@ -2283,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>18</v>
@@ -2303,22 +2303,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="21">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="21">
+      <c r="E3" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="24">
         <v>24</v>
-      </c>
-      <c r="E3" t="s" s="22">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="24">
-        <v>25</v>
       </c>
       <c r="H3" t="s" s="25">
         <v>18</v>
@@ -2333,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="29">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s" s="30">
         <v>18</v>
@@ -2342,10 +2342,10 @@
         <v>18</v>
       </c>
       <c r="O3" t="s" s="32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -2459,16 +2459,16 @@
         <v>18</v>
       </c>
       <c r="D6" t="s" s="69">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s" s="70">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s" s="72">
         <v>34</v>
-      </c>
-      <c r="E6" t="s" s="70">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="71">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="72">
-        <v>35</v>
       </c>
       <c r="H6" t="s" s="73">
         <v>18</v>
@@ -2492,10 +2492,10 @@
         <v>18</v>
       </c>
       <c r="O6" t="s" s="80">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s" s="81">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -2503,13 +2503,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="84">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="85">
         <v>36</v>
-      </c>
-      <c r="C7" t="s" s="84">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="85">
-        <v>34</v>
       </c>
       <c r="E7" t="s" s="86">
         <v>18</v>
@@ -2542,10 +2542,10 @@
         <v>18</v>
       </c>
       <c r="O7" t="s" s="96">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s" s="97">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -2553,13 +2553,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -2568,7 +2568,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="104">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="105">
         <v>18</v>
@@ -2592,10 +2592,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -2603,13 +2603,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -2642,10 +2642,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -2842,10 +2842,10 @@
         <v>18</v>
       </c>
       <c r="O13" t="s" s="192">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s" s="193">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2853,13 +2853,13 @@
         <v>53</v>
       </c>
       <c r="B14" t="s" s="195">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s" s="196">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="197">
         <v>58</v>
-      </c>
-      <c r="C14" t="s" s="196">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s" s="197">
-        <v>59</v>
       </c>
       <c r="E14" t="s" s="198">
         <v>18</v>
@@ -2892,7 +2892,7 @@
         <v>18</v>
       </c>
       <c r="O14" t="s" s="208">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P14" t="s" s="209">
         <v>59</v>
@@ -2903,13 +2903,13 @@
         <v>60</v>
       </c>
       <c r="B15" t="s" s="211">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s" s="212">
         <v>18</v>
       </c>
       <c r="D15" t="s" s="213">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s" s="214">
         <v>18</v>
@@ -2942,10 +2942,10 @@
         <v>18</v>
       </c>
       <c r="O15" t="s" s="224">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s" s="225">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -2953,13 +2953,13 @@
         <v>60</v>
       </c>
       <c r="B16" t="s" s="227">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s" s="228">
         <v>18</v>
       </c>
       <c r="D16" t="s" s="229">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s" s="230">
         <v>18</v>
@@ -2992,10 +2992,10 @@
         <v>18</v>
       </c>
       <c r="O16" t="s" s="240">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P16" t="s" s="241">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -3009,7 +3009,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s" s="245">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s" s="246">
         <v>18</v>
@@ -3042,10 +3042,10 @@
         <v>18</v>
       </c>
       <c r="O17" t="s" s="256">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P17" t="s" s="257">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -3053,13 +3053,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s" s="259">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s" s="260">
         <v>18</v>
       </c>
       <c r="D18" t="s" s="261">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s" s="262">
         <v>18</v>
@@ -3092,10 +3092,10 @@
         <v>18</v>
       </c>
       <c r="O18" t="s" s="272">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s" s="273">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
